--- a/biology/Biochimie/État_natif_(biochimie)/État_natif_(biochimie).xlsx
+++ b/biology/Biochimie/État_natif_(biochimie)/État_natif_(biochimie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tat_natif_(biochimie)</t>
+          <t>État_natif_(biochimie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, l'état natif d'une protéine est sa forme fonctionnelle ou opérative. Toutes les molécules de protéines sont des chaines linéaires d'acides aminés, mais c'est au moyen de leurs formes tridimensionnelles qu'elles sont capables de jouer leurs rôles biologiques. Les modifications de formes des protéines sont les causes primaires de maladies neurodégénératives, y compris celles causées par les prions ou encore l'amylose.
 De nombreuses enzymes et d'autres protéines non-structurales ont plus d'un état natif, et elles agissent ou sont régulées par des transitions entre ces états. Cependant, l'expression « état natif » est utilisée quasi exclusivement au singulier, typiquement afin de distinguer de manière nette les protéines repliées des protéines dénaturées ou des protéines non-repliées. Dans d'autres contextes, la forme repliée d'une protéine est la plupart du temps désignée comme sa « conformation » ou sa « structure ».
